--- a/Data/Exports/invo1.xlsx
+++ b/Data/Exports/invo1.xlsx
@@ -77,15 +77,13 @@
     <x:t>Items</x:t>
   </x:si>
   <x:si>
-    <x:t>Aisco</x:t>
+    <x:t>Hach Co.
+ATTN: ACCOUNTS PAYABLE</x:t>
   </x:si>
   <x:si>
     <x:t>12110 Tejon Street Westminster, CO 80234-2321</x:t>
   </x:si>
   <x:si>
-    <x:t>Hach Co.</x:t>
-  </x:si>
-  <x:si>
     <x:t>PO Box 389 Loveland, CO 80539-0389</x:t>
   </x:si>
   <x:si>
@@ -95,7 +93,7 @@
     <x:t>HIS COMPANY, INC PO BOX 679472 DALLAS, TX 75267-9472</x:t>
   </x:si>
   <x:si>
-    <x:t>2019-11-13</x:t>
+    <x:t>11/13/19</x:t>
   </x:si>
   <x:si>
     <x:t>11010519-00</x:t>
@@ -144,6 +142,9 @@
 "Country","United States"
 "State / County / Province","Texas"
 "Zip Postal Code","75267-9472"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-11-13</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -574,34 +575,34 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="s">
+      <x:c r="F2" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="F2" s="0" t="s">
+      <x:c r="G2" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="G2" s="0" t="s">
+      <x:c r="I2" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="I2" s="0" t="s">
+      <x:c r="K2" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="K2" s="0" t="s">
+      <x:c r="L2" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="L2" s="0" t="s">
+      <x:c r="M2" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="M2" s="0" t="s">
+      <x:c r="N2" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="N2" s="0" t="s">
+      <x:c r="S2" s="0" t="s">
         <x:v>30</x:v>
-      </x:c>
-      <x:c r="S2" s="0" t="s">
-        <x:v>31</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -691,37 +692,37 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D2" s="1" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D2" s="1" t="s">
+      <x:c r="F2" s="1" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="F2" s="1" t="s">
+      <x:c r="G2" s="1" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="G2" s="1" t="s">
+      <x:c r="I2" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="I2" s="0" t="s">
+      <x:c r="K2" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="K2" s="0" t="s">
+      <x:c r="L2" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="L2" s="0" t="s">
+      <x:c r="M2" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="M2" s="0" t="s">
+      <x:c r="N2" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="N2" s="0" t="s">
+      <x:c r="S2" s="0" t="s">
         <x:v>30</x:v>
-      </x:c>
-      <x:c r="S2" s="0" t="s">
-        <x:v>31</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Data/Exports/invo1.xlsx
+++ b/Data/Exports/invo1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <x:si>
     <x:t>Name</x:t>
   </x:si>
@@ -103,9 +103,6 @@
   </x:si>
   <x:si>
     <x:t>1% 10 NET 30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HACH COMPANY</x:t>
   </x:si>
   <x:si>
     <x:t>USD</x:t>
@@ -598,11 +595,8 @@
       <x:c r="M2" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="N2" s="0" t="s">
+      <x:c r="S2" s="0" t="s">
         <x:v>29</x:v>
-      </x:c>
-      <x:c r="S2" s="0" t="s">
-        <x:v>30</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -692,22 +686,22 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="D2" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F2" s="1" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="F2" s="1" t="s">
+      <x:c r="G2" s="1" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="G2" s="1" t="s">
+      <x:c r="I2" s="0" t="s">
         <x:v>34</x:v>
-      </x:c>
-      <x:c r="I2" s="0" t="s">
-        <x:v>35</x:v>
       </x:c>
       <x:c r="K2" s="0" t="s">
         <x:v>26</x:v>
@@ -718,11 +712,8 @@
       <x:c r="M2" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="N2" s="0" t="s">
+      <x:c r="S2" s="0" t="s">
         <x:v>29</x:v>
-      </x:c>
-      <x:c r="S2" s="0" t="s">
-        <x:v>30</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Data/Exports/invo1.xlsx
+++ b/Data/Exports/invo1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <x:si>
     <x:t>Name</x:t>
   </x:si>
@@ -81,18 +81,6 @@
 ATTN: ACCOUNTS PAYABLE</x:t>
   </x:si>
   <x:si>
-    <x:t>12110 Tejon Street Westminster, CO 80234-2321</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PO Box 389 Loveland, CO 80539-0389</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HACH COMPANY 5600 LINDBERGH DR LOVELAND, CO 80538-8842</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HIS COMPANY, INC PO BOX 679472 DALLAS, TX 75267-9472</x:t>
-  </x:si>
-  <x:si>
     <x:t>11/13/19</x:t>
   </x:si>
   <x:si>
@@ -103,42 +91,6 @@
   </x:si>
   <x:si>
     <x:t>1% 10 NET 30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>USD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Key,Value
-"Address Line 1","12110 Tejon Street"
-"City","Westminster"
-"Country","United States"
-"State / County / Province","Colorado"
-"Zip Postal Code","80234-2321"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Key,Value
-"Address Line 2","PO Box 389"
-"City","Loveland"
-"Country","United States"
-"State / County / Province","Colorado"
-"Zip Postal Code","80539-0389"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Key,Value
-"Address Line 1","HACH COMPANY 5600 LINDBERGH DR"
-"City","Loveland"
-"Country","United States"
-"State / County / Province","Colorado"
-"Zip Postal Code","80538-8842"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Key,Value
-"Address Line 1","HIS COMPANY INC"
-"Address Line 2","PO BOX 679472"
-"City","Dallas"
-"Country","United States"
-"State / County / Province","Texas"
-"Zip Postal Code","75267-9472"</x:t>
   </x:si>
   <x:si>
     <x:t>2019-11-13</x:t>
@@ -568,35 +520,20 @@
       <x:c r="A2" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
       <x:c r="C2" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="s">
+      <x:c r="I2" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="K2" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="F2" s="0" t="s">
+      <x:c r="L2" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="G2" s="0" t="s">
+      <x:c r="M2" s="0" t="s">
         <x:v>24</x:v>
-      </x:c>
-      <x:c r="I2" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="K2" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="L2" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="M2" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="S2" s="0" t="s">
-        <x:v>29</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -685,35 +622,24 @@
       <x:c r="A2" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="B2" s="1" t="s">
-        <x:v>30</x:v>
-      </x:c>
+      <x:c r="B2" s="1" t="s"/>
       <x:c r="C2" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="D2" s="1" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="F2" s="1" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="G2" s="1" t="s">
-        <x:v>33</x:v>
-      </x:c>
+      <x:c r="D2" s="1" t="s"/>
+      <x:c r="F2" s="1" t="s"/>
+      <x:c r="G2" s="1" t="s"/>
       <x:c r="I2" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="K2" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="L2" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M2" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="S2" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
